--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -2,28 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\elec\BDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29320" yWindow="720" windowWidth="24180" windowHeight="17040" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -78,6 +70,9 @@
     <t>only types for which a non-zero quantity is specified for guaranteed dispatch in the BAU case</t>
   </si>
   <si>
+    <t>lignite</t>
+  </si>
+  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -87,19 +82,16 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Notes from Ben:</t>
+    <t>crude oil</t>
   </si>
   <si>
-    <t>I feel like things a bit differently in Canada (or at least in AB), where the bidding system usually give the priority to RE and Cogen, then baseload is taken care of by hydro, nuclear, coal, and some NG, then peakers</t>
+    <t>heavy or residual fuel oil</t>
   </si>
   <si>
-    <t>But maybe I'm understanding this variable the other way around (?)</t>
+    <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Or maybe this variable is not useful dor Canada (?)</t>
-  </si>
-  <si>
-    <t>coal to gas</t>
+    <t>Priority Order (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -143,11 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,9 +207,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -247,9 +242,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -453,67 +448,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -527,19 +500,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -649,9 +623,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -797,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -945,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1241,9 +1215,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1389,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <f t="shared" ref="D9:AK17" si="2">$B9</f>
         <v>2</v>
       </c>
       <c r="AK9">
@@ -1833,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1981,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2129,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2277,9 +2251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2425,9 +2399,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2570,6 +2544,450 @@
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C17" si="3">$B15</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:AK17" si="4">$B17</f>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
